--- a/biology/Zoologie/Garrulaxe_de_Courtois/Garrulaxe_de_Courtois.xlsx
+++ b/biology/Zoologie/Garrulaxe_de_Courtois/Garrulaxe_de_Courtois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterorhinus courtoisi
 Le Garrulaxe de Courtois (Pterorhinus courtoisi) est une espèce de passereaux de la famille des Leiothrichidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a un plumage vert olive avec l'extrémité des rémiges bleu gris, le dessus de la tête et la nuque bleu azur. La face est bleu foncé, la gorge jaune, et le ventre vert jaune. Il possède un bec court et pointu bleuté. Il pèse une centaine de grammes.
 </t>
@@ -543,7 +557,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en colonies dans le sud-est de la Chine dans les forêts de montagne du Jiangxi.
 </t>
@@ -574,7 +590,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa longévité est estimée à 15 ans.
 </t>
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La période de reproduction s'étale d'avril à juillet.
 </t>
@@ -636,7 +656,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de fruits, baies, vers, graines et d'insectes.
 </t>
@@ -667,7 +689,9 @@
           <t>Préservation de l'espèce</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2011, il en restait à l'état sauvage environ 250 individus repérés dans cinq sites de reproduction dont les alentours de la rivière Lean, district du Xian de Wuyuan (Jiangxi). L'espèce est classée en danger critique d'extinction à la suite des nombreux prélèvements opérés dans leur milieu naturel pour le commerce des oiseaux de cage en Europe et à la disparition progressive de celui-ci à la suite de l'urbanisation. Selon le réseau de parcs zoologiques ISIS, en 2010 il y aurait environ 120 individus détenus en captivité dans des volières (Europe, États Unis). He Fen-qi,  professeur de l'institut de zoologie de Pékin, coordonne le programme de sauvegarde du Garrulaxe de Courtois au Wuyuan.
 </t>
@@ -698,10 +722,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant 2006, l'espèce faisait partie de l'espèce Garrulaxe à gorge jaune (Pterorhinus galbanus)[1].
-Suivant les travaux de Collar (2006), le Congrès ornithologique international l'élève au rang d'espèce à part entière. Elle est constituée de deux sous-espèces Garrulax courtoisi courtoisi et Garrulax courtoisi simanoensis[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant 2006, l'espèce faisait partie de l'espèce Garrulaxe à gorge jaune (Pterorhinus galbanus).
+Suivant les travaux de Collar (2006), le Congrès ornithologique international l'élève au rang d'espèce à part entière. Elle est constituée de deux sous-espèces Garrulax courtoisi courtoisi et Garrulax courtoisi simanoensis.
 </t>
         </is>
       </c>
